--- a/test-data/TestData.xlsx
+++ b/test-data/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivanxue/Documents/Study/Selenium/test-data/"/>
     </mc:Choice>
@@ -12,7 +12,8 @@
     <workbookView xWindow="1040" yWindow="460" windowWidth="24560" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Unichi" sheetId="1" r:id="rId1"/>
+    <sheet name="Google" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -47,73 +48,89 @@
     <t>Results</t>
   </si>
   <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Street</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Postal Code</t>
+  </si>
+  <si>
+    <t>automation@sk8.asia</t>
+  </si>
+  <si>
+    <t>300 Testing Street</t>
+  </si>
+  <si>
+    <t>Sydney</t>
+  </si>
+  <si>
+    <t>NSW</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>UnichiTest_TestNG</t>
+  </si>
+  <si>
+    <t>Browser</t>
+  </si>
+  <si>
+    <t>chrome</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>safari</t>
+  </si>
+  <si>
+    <t>Feng Xue</t>
+  </si>
+  <si>
+    <t>Search Keyword</t>
+  </si>
+  <si>
+    <t>Selenium</t>
+  </si>
+  <si>
+    <t>Automation</t>
+  </si>
+  <si>
+    <t>GoogleTest_TestNG</t>
+  </si>
+  <si>
+    <t>UnichiTest_JUnit</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
     <t>Pass</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Street</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Postal Code</t>
-  </si>
-  <si>
-    <t>automation@sk8.asia</t>
-  </si>
-  <si>
-    <t>300 Testing Street</t>
-  </si>
-  <si>
-    <t>Sydney</t>
-  </si>
-  <si>
-    <t>NSW</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>UnichiTest_TestNG</t>
-  </si>
-  <si>
-    <t>Browser</t>
-  </si>
-  <si>
-    <t>chrome</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>safari</t>
-  </si>
-  <si>
-    <t>Feng Xue</t>
-  </si>
-  <si>
-    <t>UnichiTest_Junit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -427,17 +444,17 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="L2" sqref="L2:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.83203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.83203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.1640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="17.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -445,10 +462,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -457,22 +474,22 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>11</v>
-      </c>
-      <c r="K1" t="s">
-        <v>12</v>
       </c>
       <c r="L1" t="s">
         <v>5</v>
@@ -480,13 +497,13 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -495,63 +512,116 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="L2" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>14</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="L3" t="s">
-        <v>6</v>
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.1640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.83203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.1640625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/test-data/TestData.xlsx
+++ b/test-data/TestData.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivanxue/Documents/Study/Selenium/test-data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivanxue/Documents/Automation/Selenium/test-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="460" windowWidth="24560" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="1040" yWindow="460" windowWidth="24560" windowHeight="15540" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Unichi" sheetId="1" r:id="rId1"/>
     <sheet name="Google" sheetId="2" r:id="rId2"/>
+    <sheet name="TimeTable" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -120,17 +121,19 @@
     <t>UnichiTest_JUnit</t>
   </si>
   <si>
-    <t>Fail</t>
-  </si>
-  <si>
     <t>Pass</t>
+  </si>
+  <si>
+    <t>Remote</t>
+  </si>
+  <si>
+    <t>myTimeTable_TestNG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -443,18 +446,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L2" sqref="L2:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.83203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="17.1640625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="1" max="1" width="19" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -530,7 +533,7 @@
         <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -568,7 +571,7 @@
         <v>17</v>
       </c>
       <c r="L3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -581,14 +584,14 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.1640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="11.83203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.1640625" collapsed="true"/>
+    <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.83203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -607,7 +610,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>26</v>
@@ -618,10 +621,44 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
